--- a/DOWNLOADS/EDITAIS/U_985909_E_900722025_30-09-2025_10h00m/U_985909_E_900722025_30-09-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_985909_E_900722025_30-09-2025_10h00m/U_985909_E_900722025_30-09-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Nº</t>
   </si>
@@ -22,6 +22,9 @@
     <t>DESCRICAO</t>
   </si>
   <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
     <t>QTDE</t>
   </si>
   <si>
@@ -68,33 +71,6 @@
   </si>
   <si>
     <t>Fonte Alimentação Ininterrupta Fonte Alimentação Ininterrupta Tipo: No-Break, Tensão Entrada: Bivolt Automático 115 - 127/220V, Frequência: 60 /-5HZ, Bateria: 2 Baterias Internas, Tensão Bateria: 24V, Capacidade Nominal: 1.5 Kva, Características Adicionais 1: 8 Tomadas 2pT</t>
-  </si>
-  <si>
-    <t>15160,67</t>
-  </si>
-  <si>
-    <t>3807,92</t>
-  </si>
-  <si>
-    <t>3956,60</t>
-  </si>
-  <si>
-    <t>16177,33</t>
-  </si>
-  <si>
-    <t>1658,00</t>
-  </si>
-  <si>
-    <t>90964,02</t>
-  </si>
-  <si>
-    <t>83774,24</t>
-  </si>
-  <si>
-    <t>39566,00</t>
-  </si>
-  <si>
-    <t>9948,00</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -461,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,135 +468,126 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>90964.02</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>83774.24000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>39566</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>16177.33</v>
+      </c>
+      <c r="F5">
+        <v>16177.33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F6">
+        <v>9948</v>
+      </c>
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I6" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
